--- a/output/金門縣/2014_鄉鎮市長_各村里得票數_金門縣.xlsx
+++ b/output/金門縣/2014_鄉鎮市長_各村里得票數_金門縣.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="區域01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="金城鎮" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="金沙鎮" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="金湖鎮" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="金寧鄉" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="烈嶼鄉" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="烏坵鄉" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2014年金門縣None鄉鎮市長候選人在各村(里)得票數一覽表</t>
+          <t>2014年金門縣金城鎮鄉鎮市長候選人在各村(里)得票數一覽表</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -438,12 +443,6 @@
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-      <c r="N1" t="inlineStr"/>
-      <c r="O1" t="inlineStr"/>
-      <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="inlineStr"/>
-      <c r="R1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,54 +461,48 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>有效票數A
 A=1+2+...+N</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>無效票數B</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>投票數C
 C=A+B</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>已領未投票數
 D
 D=E-C</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>發出票數E
 E=C+D</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>用餘票數F</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>選舉人數G
 G=E+F</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>投票率H
 H=C÷G</t>
@@ -522,67 +515,25 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>(1)
-陳振國
+石兆瑉
 中國國民黨</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(1)
-吳金平
-中國國民黨</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(1)
-謝春欗
-中國國民黨</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(1)
-楊雲成
-中國國民黨</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>(2)
-林樹清
+歐陽彥木
 無黨籍及未經政黨推薦</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(2)
-陳如嵐
-中國國民黨</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(2)
-林德建
-中國國民黨</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>(3)
-曹容華
-中國國民黨</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -597,12 +548,6 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -617,12 +562,6 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -632,500 +571,2343 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>3700</v>
+        <v>7826</v>
       </c>
       <c r="D6" t="n">
-        <v>3700</v>
+        <v>6633</v>
       </c>
       <c r="E6" t="n">
-        <v>3700</v>
+        <v>14459</v>
       </c>
       <c r="F6" t="n">
-        <v>3700</v>
+        <v>639</v>
       </c>
       <c r="G6" t="n">
-        <v>1934</v>
+        <v>15098</v>
       </c>
       <c r="H6" t="n">
-        <v>1934</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1934</v>
+        <v>15098</v>
       </c>
       <c r="J6" t="n">
-        <v>882</v>
+        <v>17824</v>
       </c>
       <c r="K6" t="n">
-        <v>6516</v>
+        <v>32922</v>
       </c>
       <c r="L6" t="n">
-        <v>211</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6727</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6727</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3306</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10033</v>
-      </c>
-      <c r="R6" t="n">
-        <v>67.05</v>
+        <v>45.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>東門里</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>667</v>
+        <v>995</v>
       </c>
       <c r="D7" t="n">
-        <v>667</v>
+        <v>1078</v>
       </c>
       <c r="E7" t="n">
-        <v>667</v>
+        <v>2073</v>
       </c>
       <c r="F7" t="n">
-        <v>667</v>
+        <v>93</v>
       </c>
       <c r="G7" t="n">
-        <v>237</v>
+        <v>2166</v>
       </c>
       <c r="H7" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>237</v>
+        <v>2166</v>
       </c>
       <c r="J7" t="n">
-        <v>278</v>
+        <v>2330</v>
       </c>
       <c r="K7" t="n">
-        <v>1182</v>
+        <v>4496</v>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1202</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1202</v>
-      </c>
-      <c r="P7" t="n">
-        <v>633</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1835</v>
-      </c>
-      <c r="R7" t="n">
-        <v>65.5</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>西門里</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>630</v>
+        <v>2313</v>
       </c>
       <c r="D8" t="n">
-        <v>630</v>
+        <v>1554</v>
       </c>
       <c r="E8" t="n">
-        <v>630</v>
+        <v>3867</v>
       </c>
       <c r="F8" t="n">
-        <v>630</v>
+        <v>194</v>
       </c>
       <c r="G8" t="n">
-        <v>272</v>
+        <v>4061</v>
       </c>
       <c r="H8" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>272</v>
+        <v>4061</v>
       </c>
       <c r="J8" t="n">
-        <v>286</v>
+        <v>4636</v>
       </c>
       <c r="K8" t="n">
-        <v>1188</v>
+        <v>8697</v>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1226</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1226</v>
-      </c>
-      <c r="P8" t="n">
-        <v>673</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1899</v>
-      </c>
-      <c r="R8" t="n">
-        <v>64.56</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>南門里</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>708</v>
+        <v>1160</v>
       </c>
       <c r="D9" t="n">
-        <v>708</v>
+        <v>991</v>
       </c>
       <c r="E9" t="n">
-        <v>708</v>
+        <v>2151</v>
       </c>
       <c r="F9" t="n">
-        <v>708</v>
+        <v>114</v>
       </c>
       <c r="G9" t="n">
-        <v>326</v>
+        <v>2265</v>
       </c>
       <c r="H9" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>326</v>
+        <v>2265</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>2549</v>
       </c>
       <c r="K9" t="n">
-        <v>1352</v>
+        <v>4814</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1370</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1370</v>
-      </c>
-      <c r="P9" t="n">
-        <v>845</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2215</v>
-      </c>
-      <c r="R9" t="n">
-        <v>61.85</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>北門里</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>449</v>
+        <v>882</v>
       </c>
       <c r="D10" t="n">
-        <v>449</v>
+        <v>679</v>
       </c>
       <c r="E10" t="n">
-        <v>449</v>
+        <v>1561</v>
       </c>
       <c r="F10" t="n">
-        <v>449</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>487</v>
+        <v>1609</v>
       </c>
       <c r="H10" t="n">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>487</v>
+        <v>1609</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="K10" t="n">
-        <v>936</v>
+        <v>3751</v>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>948</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>948</v>
-      </c>
-      <c r="P10" t="n">
-        <v>399</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1347</v>
-      </c>
-      <c r="R10" t="n">
-        <v>70.38</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0004</t>
+          <t>古城里</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>136</v>
+        <v>685</v>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>724</v>
       </c>
       <c r="E11" t="n">
-        <v>136</v>
+        <v>1409</v>
       </c>
       <c r="F11" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
-        <v>243</v>
+        <v>1454</v>
       </c>
       <c r="H11" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>243</v>
+        <v>1454</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1669</v>
       </c>
       <c r="K11" t="n">
-        <v>379</v>
+        <v>3123</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>386</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>386</v>
-      </c>
-      <c r="P11" t="n">
-        <v>146</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>532</v>
-      </c>
-      <c r="R11" t="n">
-        <v>72.56</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>金水里</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>330</v>
+        <v>434</v>
       </c>
       <c r="D12" t="n">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E12" t="n">
-        <v>330</v>
+        <v>802</v>
       </c>
       <c r="F12" t="n">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="K12" t="n">
-        <v>330</v>
+        <v>1743</v>
       </c>
       <c r="L12" t="n">
-        <v>74</v>
-      </c>
-      <c r="M12" t="n">
-        <v>404</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>404</v>
-      </c>
-      <c r="P12" t="n">
-        <v>217</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>621</v>
-      </c>
-      <c r="R12" t="n">
-        <v>65.06</v>
+        <v>48.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>珠沙里</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>342</v>
+        <v>494</v>
       </c>
       <c r="D13" t="n">
-        <v>342</v>
+        <v>508</v>
       </c>
       <c r="E13" t="n">
-        <v>342</v>
+        <v>1002</v>
       </c>
       <c r="F13" t="n">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="K13" t="n">
-        <v>342</v>
+        <v>2471</v>
       </c>
       <c r="L13" t="n">
-        <v>36</v>
-      </c>
-      <c r="M13" t="n">
-        <v>378</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>378</v>
-      </c>
-      <c r="P13" t="n">
-        <v>210</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>588</v>
-      </c>
-      <c r="R13" t="n">
-        <v>64.29000000000001</v>
+        <v>41.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>賢庵里</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>438</v>
+        <v>863</v>
       </c>
       <c r="D14" t="n">
-        <v>438</v>
+        <v>731</v>
       </c>
       <c r="E14" t="n">
-        <v>438</v>
+        <v>1594</v>
       </c>
       <c r="F14" t="n">
-        <v>438</v>
+        <v>85</v>
       </c>
       <c r="G14" t="n">
-        <v>369</v>
+        <v>1679</v>
       </c>
       <c r="H14" t="n">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>369</v>
+        <v>1679</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2148</v>
       </c>
       <c r="K14" t="n">
-        <v>807</v>
+        <v>3827</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>813</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>813</v>
-      </c>
-      <c r="P14" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q14" t="n">
+        <v>43.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2014年金門縣金沙鎮鄉鎮市長候選人在各村(里)得票數一覽表</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>行政區別</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>村里別</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>各組候選人得票情形</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>有效票數A
+A=1+2+...+N</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>無效票數B</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>投票數C
+C=A+B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>已領未投票數
+D
+D=E-C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>發出票數E
+E=C+D</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>用餘票數F</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>選舉人數G
+G=E+F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>投票率H
+H=C÷G</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1)
+陳其德
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總　計</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>5547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5547</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6961</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6961</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9080</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16041</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>汶沙里</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E7" t="n">
+        <v>419</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2468</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4486</v>
+      </c>
+      <c r="K7" t="n">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>三山里</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>587</v>
+      </c>
+      <c r="E8" t="n">
+        <v>107</v>
+      </c>
+      <c r="F8" t="n">
+        <v>694</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>694</v>
+      </c>
+      <c r="I8" t="n">
+        <v>966</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1660</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>大洋里</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>348</v>
+      </c>
+      <c r="D9" t="n">
+        <v>348</v>
+      </c>
+      <c r="E9" t="n">
+        <v>81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>429</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>429</v>
+      </c>
+      <c r="I9" t="n">
+        <v>577</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>光前里</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>680</v>
+      </c>
+      <c r="D10" t="n">
+        <v>680</v>
+      </c>
+      <c r="E10" t="n">
+        <v>223</v>
+      </c>
+      <c r="F10" t="n">
+        <v>903</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>903</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1095</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>何斗里</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>654</v>
+      </c>
+      <c r="D11" t="n">
+        <v>654</v>
+      </c>
+      <c r="E11" t="n">
+        <v>128</v>
+      </c>
+      <c r="F11" t="n">
+        <v>782</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>782</v>
+      </c>
+      <c r="I11" t="n">
+        <v>936</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1718</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>西園里</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>433</v>
+      </c>
+      <c r="D12" t="n">
+        <v>433</v>
+      </c>
+      <c r="E12" t="n">
+        <v>118</v>
+      </c>
+      <c r="F12" t="n">
+        <v>551</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>551</v>
+      </c>
+      <c r="I12" t="n">
+        <v>758</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1309</v>
+      </c>
+      <c r="K12" t="n">
+        <v>42.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>官嶼里</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>541</v>
+      </c>
+      <c r="D13" t="n">
+        <v>541</v>
+      </c>
+      <c r="E13" t="n">
+        <v>147</v>
+      </c>
+      <c r="F13" t="n">
+        <v>688</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>688</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1860</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>浦山里</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>705</v>
+      </c>
+      <c r="D14" t="n">
+        <v>705</v>
+      </c>
+      <c r="E14" t="n">
+        <v>191</v>
+      </c>
+      <c r="F14" t="n">
+        <v>896</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>896</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2004</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2014年金門縣金湖鎮鄉鎮市長候選人在各村(里)得票數一覽表</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>行政區別</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>村里別</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>各組候選人得票情形</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>有效票數A
+A=1+2+...+N</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>無效票數B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>投票數C
+C=A+B</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>已領未投票數
+D
+D=E-C</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>發出票數E
+E=C+D</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>用餘票數F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>選舉人數G
+G=E+F</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>投票率H
+H=C÷G</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1)
+林長鴻
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(2)
+蔡西湖
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總　計</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>3251</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6345</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9596</v>
+      </c>
+      <c r="F6" t="n">
+        <v>303</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9899</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9899</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12228</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22127</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>新市里</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>705</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1755</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1803</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1803</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2070</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3873</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>山外里</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>442</v>
+      </c>
+      <c r="D8" t="n">
+        <v>858</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1336</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1336</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1686</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3022</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>正義里</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>309</v>
+      </c>
+      <c r="D9" t="n">
+        <v>629</v>
+      </c>
+      <c r="E9" t="n">
+        <v>938</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>976</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>976</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1166</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2142</v>
+      </c>
+      <c r="L9" t="n">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>料羅里</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" t="n">
+        <v>475</v>
+      </c>
+      <c r="E10" t="n">
+        <v>667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>685</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>685</v>
+      </c>
+      <c r="J10" t="n">
+        <v>927</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1612</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>瓊林里</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>185</v>
+      </c>
+      <c r="D11" t="n">
+        <v>992</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1198</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1198</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2683</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>99</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2724</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3428</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6152</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>溪湖里</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>127</v>
+      </c>
+      <c r="D13" t="n">
+        <v>413</v>
+      </c>
+      <c r="E13" t="n">
+        <v>540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>565</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>565</v>
+      </c>
+      <c r="J13" t="n">
+        <v>677</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1242</v>
+      </c>
+      <c r="L13" t="n">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>蓮庵里</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>151</v>
+      </c>
+      <c r="D14" t="n">
+        <v>443</v>
+      </c>
+      <c r="E14" t="n">
+        <v>594</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>612</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>612</v>
+      </c>
+      <c r="J14" t="n">
+        <v>789</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1401</v>
+      </c>
+      <c r="L14" t="n">
+        <v>43.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2014年金門縣金寧鄉鄉鎮市長候選人在各村(里)得票數一覽表</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>行政區別</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>村里別</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>各組候選人得票情形</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>有效票數A
+A=1+2+...+N</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>無效票數B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>投票數C
+C=A+B</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>已領未投票數
+D
+D=E-C</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>發出票數E
+E=C+D</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>用餘票數F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>選舉人數G
+G=E+F</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>投票率H
+H=C÷G</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1)
+楊忠俊
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(2)
+陳成勇
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總　計</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>3228</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6214</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9442</v>
+      </c>
+      <c r="F6" t="n">
+        <v>368</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9810</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9810</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11803</v>
+      </c>
+      <c r="K6" t="n">
+        <v>21613</v>
+      </c>
+      <c r="L6" t="n">
+        <v>45.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>古寧村</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>247</v>
+      </c>
+      <c r="D7" t="n">
+        <v>923</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1170</v>
+      </c>
+      <c r="F7" t="n">
+        <v>43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1213</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1213</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1612</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2825</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>安美村</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>570</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F8" t="n">
+        <v>47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1667</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1866</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3533</v>
+      </c>
+      <c r="L8" t="n">
+        <v>47.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>后盤村</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>166</v>
+      </c>
+      <c r="D9" t="n">
+        <v>372</v>
+      </c>
+      <c r="E9" t="n">
+        <v>538</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>555</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>555</v>
+      </c>
+      <c r="J9" t="n">
+        <v>724</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1279</v>
+      </c>
+      <c r="L9" t="n">
+        <v>43.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>湖埔村</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F10" t="n">
+        <v>56</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2189</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2189</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2356</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4545</v>
+      </c>
+      <c r="L10" t="n">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>榜林村</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1227</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1786</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1843</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1843</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2377</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4220</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>盤山村</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>621</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2195</v>
+      </c>
+      <c r="F12" t="n">
+        <v>148</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2343</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2343</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2868</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5211</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2014年金門縣烈嶼鄉鄉鎮市長候選人在各村(里)得票數一覽表</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>行政區別</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>村里別</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>各組候選人得票情形</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>有效票數A
+A=1+2+...+N</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>無效票數B</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>投票數C
+C=A+B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>已領未投票數
+D
+D=E-C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>發出票數E
+E=C+D</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>用餘票數F</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>選舉人數G
+G=E+F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>投票率H
+H=C÷G</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1)
+洪成發
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總　計</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>3752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3752</v>
+      </c>
+      <c r="E6" t="n">
+        <v>761</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4513</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4513</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5447</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9960</v>
+      </c>
+      <c r="K6" t="n">
+        <v>45.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>上岐村</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>970</v>
+      </c>
+      <c r="D7" t="n">
+        <v>970</v>
+      </c>
+      <c r="E7" t="n">
+        <v>129</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1099</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1318</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2417</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上林村</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>413</v>
+      </c>
+      <c r="D8" t="n">
+        <v>413</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>511</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>511</v>
+      </c>
+      <c r="I8" t="n">
+        <v>718</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1229</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>西口村</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>845</v>
+      </c>
+      <c r="D9" t="n">
+        <v>845</v>
+      </c>
+      <c r="E9" t="n">
+        <v>151</v>
+      </c>
+      <c r="F9" t="n">
         <v>996</v>
       </c>
-      <c r="R14" t="n">
-        <v>81.63</v>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>996</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1093</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2089</v>
+      </c>
+      <c r="K9" t="n">
+        <v>47.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>林湖村</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>991</v>
+      </c>
+      <c r="D10" t="n">
+        <v>991</v>
+      </c>
+      <c r="E10" t="n">
+        <v>319</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1310</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1310</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1587</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2897</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>黃埔村</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>533</v>
+      </c>
+      <c r="D11" t="n">
+        <v>533</v>
+      </c>
+      <c r="E11" t="n">
+        <v>64</v>
+      </c>
+      <c r="F11" t="n">
+        <v>597</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>597</v>
+      </c>
+      <c r="I11" t="n">
+        <v>731</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1328</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2014年金門縣烏坵鄉鄉鎮市長候選人在各村(里)得票數一覽表</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>行政區別</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>村里別</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>各組候選人得票情形</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>有效票數A
+A=1+2+...+N</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>無效票數B</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>投票數C
+C=A+B</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>已領未投票數
+D
+D=E-C</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>發出票數E
+E=C+D</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>用餘票數F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>選舉人數G
+G=E+F</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>投票率H
+H=C÷G</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1)
+蔡永富
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(2)
+陳金城
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總　計</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>113</v>
+      </c>
+      <c r="E6" t="n">
+        <v>339</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>346</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>346</v>
+      </c>
+      <c r="J6" t="n">
+        <v>143</v>
+      </c>
+      <c r="K6" t="n">
+        <v>489</v>
+      </c>
+      <c r="L6" t="n">
+        <v>70.76000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>大坵村</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>150</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>152</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>152</v>
+      </c>
+      <c r="J7" t="n">
+        <v>82</v>
+      </c>
+      <c r="K7" t="n">
+        <v>234</v>
+      </c>
+      <c r="L7" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>小坵村</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>189</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>194</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>194</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>255</v>
+      </c>
+      <c r="L8" t="n">
+        <v>76.08</v>
       </c>
     </row>
   </sheetData>
